--- a/doc/unfinished/5_品質管理シート_二次開発.xlsx
+++ b/doc/unfinished/5_品質管理シート_二次開発.xlsx
@@ -490,43 +490,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1次開発にて抽出しきれていなかったテストを追加し、二次開発にてテスト項目を増やしたため設定率は改善された。</t>
-    <rPh sb="1" eb="2">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チュウシュツ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>カイゼン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>二次開発においては実装作業が順調に進み再レビューは行われなかった。</t>
     <rPh sb="0" eb="2">
       <t>ニジ</t>
@@ -555,83 +518,116 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時間の都合上、システムテストの項目については最低限必要なもののみに抑えており、十分に項目数を増やせなかった。</t>
+    <t>指標値である80.0に30.0ほど少なく、テスト項目の抽出が足りなかったのだと推測される。またテストエラー率も下限割れしており、抽出したテスト項目も中心機能を押さえたものではなかったのかもしれない。</t>
     <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ツゴウジョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
+      <t>シヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
       <t>コウモク</t>
     </rPh>
-    <rPh sb="22" eb="25">
-      <t>サイテイゲン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オサ</t>
+    <rPh sb="27" eb="29">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タ</t>
     </rPh>
     <rPh sb="39" eb="41">
-      <t>ジュウブン</t>
-    </rPh>
-    <rPh sb="42" eb="45">
-      <t>コウモクスウ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1次開発の残作業を進めたため、デシジョンテーブルで抽出した
-テスト項目数は変わらず、総ステップ数のみが増加したことによりテスト項目設定率は低下した。</t>
-    <rPh sb="1" eb="2">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ザン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="25" eb="27">
+      <t>スイソク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
       <t>チュウシュツ</t>
     </rPh>
-    <rPh sb="33" eb="36">
-      <t>コウモクスウ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ソウ</t>
+    <rPh sb="71" eb="73">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下限値から10.0ほど下回った実績値となっているが、実装以前の分析、設計で完成物の全体のデータの流れを想像できていなかったためだと考える。</t>
+    <rPh sb="0" eb="3">
+      <t>カゲンチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シタマワ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ジッセキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績値が2.1と下限値をこちらも10.0近く下回っている。テスト項目の実績値は7個と、ステップ数に対して少ないのがわかる。今回は納期もあり、正常系のみのテストになっていたためこのようなテスト項目数になった。</t>
+    <rPh sb="0" eb="3">
+      <t>ジッセキチ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カゲンチ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シタマワ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ジッセキチ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>コ</t>
     </rPh>
     <rPh sb="47" eb="48">
       <t>スウ</t>
     </rPh>
-    <rPh sb="51" eb="53">
-      <t>ゾウカ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
+    <rPh sb="49" eb="50">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ノウキ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
       <t>コウモク</t>
     </rPh>
-    <rPh sb="65" eb="67">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>テイカ</t>
+    <rPh sb="97" eb="98">
+      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -919,6 +915,33 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -928,15 +951,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -955,21 +969,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,9 +977,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1297,8 +1293,8 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1316,11 +1312,11 @@
       <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -1344,11 +1340,11 @@
       <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1357,7 +1353,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1374,16 +1370,16 @@
       <c r="G4" s="3">
         <v>0.73</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1398,14 +1394,14 @@
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1422,16 +1418,16 @@
       <c r="G6" s="3">
         <v>2.9</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1446,14 +1442,14 @@
       <c r="G7" s="3">
         <v>0.49</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1470,16 +1466,16 @@
       <c r="G8" s="3">
         <v>0.49</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1494,14 +1490,14 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1518,16 +1514,16 @@
       <c r="G10" s="3">
         <v>0.5</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1542,14 +1538,14 @@
       <c r="G11" s="3">
         <v>0.5</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1566,16 +1562,16 @@
       <c r="G12" s="3">
         <v>5</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="H12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="36"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1590,14 +1586,14 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1616,16 +1612,16 @@
       <c r="G14" s="3">
         <v>50.9</v>
       </c>
-      <c r="H14" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-    </row>
-    <row r="15" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
+      <c r="H14" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1644,14 +1640,14 @@
       <c r="G15" s="3">
         <v>6.3</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1672,16 +1668,16 @@
       <c r="G16" s="3">
         <v>10.7</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="H16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1700,14 +1696,14 @@
       <c r="G17" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1728,16 +1724,16 @@
       <c r="G18" s="3">
         <v>2.14</v>
       </c>
-      <c r="H18" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="H18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1756,11 +1752,11 @@
       <c r="G19" s="3">
         <v>1.5</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D21" s="14"/>
@@ -1770,23 +1766,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="H6:J7"/>
-    <mergeCell ref="H8:J9"/>
-    <mergeCell ref="H10:J11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H18:J19"/>
-    <mergeCell ref="H16:J17"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="L10:L11"/>
@@ -1803,6 +1782,23 @@
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H18:J19"/>
+    <mergeCell ref="H16:J17"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="H6:J7"/>
+    <mergeCell ref="H8:J9"/>
+    <mergeCell ref="H10:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2066,11 +2062,11 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="2">
         <f>SUM(D5:D15)</f>
         <v>27</v>
@@ -2211,10 +2207,10 @@
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="2">
         <f>SUM(C5:C10)</f>
         <v>14</v>
